--- a/系统/法院系统/报价确定函-20171010.xlsx
+++ b/系统/法院系统/报价确定函-20171010.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
-  <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/work/同步文件/办公室同步/系统/法院系统/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="23840" windowHeight="14020" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="465" windowWidth="23835" windowHeight="14025"/>
   </bookViews>
   <sheets>
     <sheet name="报价函" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="各省单位数" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,10 +51,6 @@
   </si>
   <si>
     <t>全省推广（基层法院）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测算单位数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -274,16 +265,20 @@
     <t>山东</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +399,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -560,161 +556,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1017,585 +1025,614 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="42.75">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>350000</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="8">
         <f>880000*0.64</f>
         <v>563200</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="8">
         <f>60000*0.4</f>
         <v>24000</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="9">
         <f>36000*0.4</f>
         <v>14400</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="10">
+        <f>VLOOKUP($G$2,各省单位数!A:D,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="10">
         <f>D3*G3</f>
         <v>563200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>200000</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10">
+        <f>VLOOKUP($G$2,各省单位数!A:D,3,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="H4" s="10">
+        <f>E3*G4</f>
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="7">
+        <v>300000</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10">
+        <f>VLOOKUP($G$2,各省单位数!A:D,4,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="H5" s="10">
+        <f>F3*G5</f>
+        <v>1540800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7">
         <v>200000</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="4">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4">
-        <f>E3*G4</f>
-        <v>288000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3">
-        <v>300000</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="4">
-        <v>80</v>
-      </c>
-      <c r="H5" s="4">
-        <f>F3*G5</f>
-        <v>1152000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3">
-        <v>200000</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="10">
+        <f>H3+H4+H5</f>
+        <v>2416000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4">
-        <f>H3+H4+H5</f>
-        <v>2003200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="C7" s="17">
         <v>100000</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="9">
         <f>880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="9">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="9">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9">
+        <f>D7*G3+E7*G4+F7*G5</f>
+        <v>1032000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="27">
-        <f>D7*G3+E7*G4+F7*G5</f>
-        <v>825600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="17">
+        <v>200000</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
-        <v>200000</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="17">
+        <v>100000</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
+      <c r="A10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7">
+      <c r="B10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="23">
         <v>100000</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="29"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D10" s="27">
+      <c r="D10" s="9">
         <f t="shared" ref="D10" si="0">880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="9">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="9">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="9">
+        <f>D10*G3+E10*G4+F10*G5</f>
+        <v>1032000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="27">
-        <f>D10*G3+E10*G4+F10*G5</f>
-        <v>825600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="23">
+        <v>100000</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="23">
         <v>100000</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.25">
+      <c r="A13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="29"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="35" t="s">
+      <c r="B13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="C13" s="26">
         <v>200000</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="9">
         <f t="shared" ref="D13" si="1">880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="9">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="9">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="9">
+        <f>D13*G3+E13*G4+F13*G5</f>
+        <v>1032000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="27">
-        <f>D13*G3+E13*G4+F13*G5</f>
-        <v>825600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="36"/>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="26">
+        <v>200000</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C15" s="26">
+        <v>100000</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="26">
         <v>200000</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="11">
-        <v>100000</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="10" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="14.25">
+      <c r="A17" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="11">
-        <v>200000</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31">
         <f>SUM(C3:C16)</f>
         <v>2450000</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="32">
         <f>SUM(D3:D15)</f>
         <v>880000</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="33">
         <f>SUM(E3:E15)</f>
         <v>60000</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="33">
         <f>SUM(F3:F15)</f>
         <v>36000</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="14">
+      <c r="G17" s="33"/>
+      <c r="H17" s="31">
         <f>SUM(H6:H15)</f>
-        <v>4480000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="42" t="s">
+        <v>5512000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1">
+      <c r="A18" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="18" t="s">
+      <c r="E18" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="F18" s="37"/>
+      <c r="G18" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="18" t="s">
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="39">
+        <v>50000</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="50">
+        <v>1</v>
+      </c>
+      <c r="H19" s="36">
+        <f>D19*G19</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="20">
-        <v>50000</v>
-      </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="18">
-        <f>D19*G19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="42"/>
-      <c r="B20" s="45" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="39">
+        <v>100000</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="50">
+        <v>1</v>
+      </c>
+      <c r="H20" s="36">
+        <f>D20*G20</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="20">
-        <v>100000</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="18">
-        <f>D20*G20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="42"/>
-      <c r="B21" s="45" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44" t="s">
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="42"/>
-      <c r="B22" s="46" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="36">
+        <f>H19+H20+H21</f>
+        <v>150200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="14.25">
+      <c r="A23" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="18">
-        <f>H19+H20+H21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A23" s="38" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47">
+        <f>H17+H22</f>
+        <v>5662200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="21">
-        <f>H17+H22</f>
-        <v>4480000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
     </row>
   </sheetData>
+  <sheetProtection password="EFCF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="35">
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
     <mergeCell ref="F13:F16"/>
     <mergeCell ref="G13:G16"/>
     <mergeCell ref="A23:G23"/>
@@ -1611,26 +1648,7 @@
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="H13:H16"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
     <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1638,32 +1656,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="22" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>48</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1675,9 +1693,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1689,9 +1707,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1703,9 +1721,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1717,9 +1735,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1731,9 +1749,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1752,14 +1770,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/系统/法院系统/报价确定函-20171010.xlsx
+++ b/系统/法院系统/报价确定函-20171010.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/work/同步文件/办公室同步/系统/法院系统/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="465" windowWidth="23835" windowHeight="14025"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="23840" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="报价函" sheetId="1" r:id="rId1"/>
     <sheet name="各省单位数" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -266,23 +271,22 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>江苏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>云南</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,7 +294,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -310,7 +314,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -374,7 +378,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -396,9 +400,17 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -556,100 +568,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -667,15 +631,6 @@
     <xf numFmtId="38" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,32 +640,8 @@
     <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -723,6 +654,90 @@
     <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -784,12 +799,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -816,14 +831,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -850,6 +866,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1025,595 +1042,614 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="42.75">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>350000</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="31">
         <f>880000*0.64</f>
         <v>563200</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="31">
         <f>60000*0.4</f>
         <v>24000</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="25">
         <f>36000*0.4</f>
         <v>14400</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="5">
         <f>VLOOKUP($G$2,各省单位数!A:D,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="5">
         <f>D3*G3</f>
         <v>563200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>200000</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="10">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="5">
         <f>VLOOKUP($G$2,各省单位数!A:D,3,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="H4" s="5">
+        <f>E3*G4</f>
+        <v>408000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>300000</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="5">
+        <f>VLOOKUP($G$2,各省单位数!A:D,4,FALSE)</f>
+        <v>131</v>
+      </c>
+      <c r="H5" s="5">
+        <f>F3*G5</f>
+        <v>1886400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>200000</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10">
-        <f>E3*G4</f>
-        <v>312000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7">
-        <v>300000</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10">
-        <f>VLOOKUP($G$2,各省单位数!A:D,4,FALSE)</f>
-        <v>107</v>
-      </c>
-      <c r="H5" s="10">
-        <f>F3*G5</f>
-        <v>1540800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7">
-        <v>200000</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="H6" s="5">
         <f>H3+H4+H5</f>
-        <v>2416000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="15" t="s">
+        <v>2857600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="8">
         <v>100000</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="25">
         <f>880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="25">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="25">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="25">
         <f>D7*G3+E7*G4+F7*G5</f>
-        <v>1032000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+        <v>1252800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="8">
         <v>200000</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="36"/>
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="8">
         <v>100000</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="21" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="10">
         <v>100000</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="25">
         <f t="shared" ref="D10" si="0">880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="25">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="25">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="25">
         <f>D10*G3+E10*G4+F10*G5</f>
-        <v>1032000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22" t="s">
+        <v>1252800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="10">
         <v>100000</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="10">
         <v>100000</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="24" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="12">
         <v>200000</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="25">
         <f t="shared" ref="D13" si="1">880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="25">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="25">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="25">
         <f>D13*G3+E13*G4+F13*G5</f>
-        <v>1032000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="25" t="s">
+        <v>1252800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="12">
         <v>200000</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="25" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="12">
         <v>100000</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="25" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="12">
         <v>200000</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="14.25">
-      <c r="A17" s="29" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15">
         <f>SUM(C3:C16)</f>
         <v>2450000</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="16">
         <f>SUM(D3:D15)</f>
         <v>880000</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="17">
         <f>SUM(E3:E15)</f>
         <v>60000</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="17">
         <f>SUM(F3:F15)</f>
         <v>36000</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31">
+      <c r="G17" s="17"/>
+      <c r="H17" s="15">
         <f>SUM(H6:H15)</f>
-        <v>5512000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1">
-      <c r="A18" s="34" t="s">
+        <v>6616000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="36" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35" t="s">
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="39">
+      <c r="C19" s="42"/>
+      <c r="D19" s="20">
         <v>50000</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="50">
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="23">
         <v>1</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="18">
         <f>D19*G19</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="40" t="s">
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41"/>
+      <c r="B20" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="39">
+      <c r="C20" s="44"/>
+      <c r="D20" s="20">
         <v>100000</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="50">
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="23">
         <v>1</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="18">
         <f>D20*G20</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="40" t="s">
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="41"/>
+      <c r="B21" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="37" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="51">
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="41" t="s">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="41"/>
+      <c r="B22" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="36">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="18">
         <f>H19+H20+H21</f>
         <v>150200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="14.25">
-      <c r="A23" s="44" t="s">
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="21">
         <f>H17+H22</f>
-        <v>5662200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="48" t="s">
+        <v>6766200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection password="EFCF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E80B" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="35">
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:H35"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="E13:E16"/>
     <mergeCell ref="A1:H1"/>
@@ -1630,136 +1666,133 @@
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:H35"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>各省单位数!$A$2:$A$98</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="52">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="52">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="52">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="23" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="52">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="52">
         <v>17</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="52">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="23" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="52">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="52">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="52">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" ht="23" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="52">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="52">
         <v>22</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="52">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" ht="23" x14ac:dyDescent="0.2">
+      <c r="A6" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="52">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="52">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="52">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" ht="23" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="52">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="52">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="52">
         <v>142</v>
       </c>
     </row>
@@ -1770,12 +1803,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/系统/法院系统/报价确定函-20171010.xlsx
+++ b/系统/法院系统/报价确定函-20171010.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="23840" windowHeight="14020"/>
+    <workbookView xWindow="1120" yWindow="760" windowWidth="25680" windowHeight="15340"/>
   </bookViews>
   <sheets>
     <sheet name="报价函" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>司法行政综合管理系统核心商务方案及报价确认函</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -271,7 +271,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>云南</t>
+    <t>湖南</t>
+    <rPh sb="0" eb="1">
+      <t>hu'nan</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -282,7 +286,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +419,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -576,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,6 +664,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -664,31 +679,13 @@
     <xf numFmtId="38" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -724,19 +721,34 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,16 +1072,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1098,7 +1110,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1107,15 +1119,15 @@
       <c r="C3" s="4">
         <v>350000</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="50">
         <f>880000*0.64</f>
         <v>563200</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="50">
         <f>60000*0.4</f>
         <v>24000</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="27">
         <f>36000*0.4</f>
         <v>14400</v>
       </c>
@@ -1129,66 +1141,66 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4">
         <v>200000</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="26"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="5">
         <f>VLOOKUP($G$2,各省单位数!A:D,3,FALSE)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H4" s="5">
         <f>E3*G4</f>
-        <v>408000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>300000</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="5">
         <f>VLOOKUP($G$2,各省单位数!A:D,4,FALSE)</f>
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H5" s="5">
         <f>F3*G5</f>
-        <v>1886400</v>
+        <v>1756800</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>200000</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="27"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="5">
         <f>H3+H4+H5</f>
-        <v>2857600</v>
+        <v>2656000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1197,56 +1209,56 @@
       <c r="C7" s="8">
         <v>100000</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="27">
         <f>880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="27">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="27">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="27">
         <f>D7*G3+E7*G4+F7*G5</f>
-        <v>1252800</v>
+        <v>1152000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="8">
         <v>200000</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="26"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="8">
         <v>100000</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="27"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="51" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1255,56 +1267,56 @@
       <c r="C10" s="10">
         <v>100000</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="27">
         <f t="shared" ref="D10" si="0">880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="27">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="27">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="27">
         <f>D10*G3+E10*G4+F10*G5</f>
-        <v>1252800</v>
+        <v>1152000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="10">
         <v>100000</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="26"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="10">
         <v>100000</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="27"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1313,67 +1325,67 @@
       <c r="C13" s="12">
         <v>200000</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="27">
         <f t="shared" ref="D13" si="1">880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="27">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="27">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="27">
         <f>D13*G3+E13*G4+F13*G5</f>
-        <v>1252800</v>
+        <v>1152000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="12">
         <v>200000</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="12">
         <v>100000</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="26"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="12">
         <v>200000</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="27"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -1399,40 +1411,40 @@
       <c r="G17" s="17"/>
       <c r="H17" s="15">
         <f>SUM(H6:H15)</f>
-        <v>6616000</v>
+        <v>6112000</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="42"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="20">
         <v>50000</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="23">
         <v>1</v>
       </c>
@@ -1442,16 +1454,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="20">
         <v>100000</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="23">
         <v>1</v>
       </c>
@@ -1461,176 +1473,196 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="44" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="24">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="18">
         <f>H19+H20+H21</f>
         <v>150200</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="21">
         <f>H17+H22</f>
-        <v>6766200</v>
+        <v>6262200</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
     </row>
   </sheetData>
   <sheetProtection password="E80B" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="35">
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="E13:E16"/>
     <mergeCell ref="H13:H16"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A23:G23"/>
@@ -1645,27 +1677,7 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="B22:G22"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="G13:G16"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="D7:D9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1686,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1699,101 +1711,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="26">
         <v>1</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="26">
         <v>13</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="26">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="26">
         <v>17</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="26">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="26">
         <v>12</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="26">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="26">
         <v>1</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="26">
         <v>22</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="26">
         <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="26">
         <v>1</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="26">
         <v>5</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="26">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="26">
         <v>1</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="26">
         <v>21</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="26">
         <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="53">
+        <v>1</v>
+      </c>
+      <c r="C8" s="53">
+        <v>14</v>
+      </c>
+      <c r="D8" s="53">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/系统/法院系统/报价确定函-20171010.xlsx
+++ b/系统/法院系统/报价确定函-20171010.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="760" windowWidth="25680" windowHeight="15340"/>
+    <workbookView xWindow="1120" yWindow="760" windowWidth="25680" windowHeight="15340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="报价函" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>司法行政综合管理系统核心商务方案及报价确认函</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -274,6 +274,16 @@
     <t>湖南</t>
     <rPh sb="0" eb="1">
       <t>hu'nan</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>青海</t>
+    <rPh sb="0" eb="1">
+      <t>qing'h</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -670,6 +680,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,6 +690,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -720,36 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1057,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1072,16 +1082,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1103,14 +1113,14 @@
         <v>6</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1119,15 +1129,15 @@
       <c r="C3" s="4">
         <v>350000</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="39">
         <f>880000*0.64</f>
         <v>563200</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="39">
         <f>60000*0.4</f>
         <v>24000</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="28">
         <f>36000*0.4</f>
         <v>14400</v>
       </c>
@@ -1141,66 +1151,66 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4">
         <v>200000</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="28"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="5">
         <f>VLOOKUP($G$2,各省单位数!A:D,3,FALSE)</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H4" s="5">
         <f>E3*G4</f>
-        <v>336000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>300000</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="28"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="5">
         <f>VLOOKUP($G$2,各省单位数!A:D,4,FALSE)</f>
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="H5" s="5">
         <f>F3*G5</f>
-        <v>1756800</v>
+        <v>331200</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>200000</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="29"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="5">
         <f>H3+H4+H5</f>
-        <v>2656000</v>
+        <v>1014400</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1209,56 +1219,56 @@
       <c r="C7" s="8">
         <v>100000</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="28">
         <f>880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="28">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="28">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="28">
         <f>D7*G3+E7*G4+F7*G5</f>
-        <v>1152000</v>
+        <v>331200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="8">
         <v>200000</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="8">
         <v>100000</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1267,56 +1277,56 @@
       <c r="C10" s="10">
         <v>100000</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="28">
         <f t="shared" ref="D10" si="0">880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="28">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="28">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="28">
         <f>D10*G3+E10*G4+F10*G5</f>
-        <v>1152000</v>
+        <v>331200</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="10">
         <v>100000</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="10">
         <v>100000</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1325,67 +1335,67 @@
       <c r="C13" s="12">
         <v>200000</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="28">
         <f t="shared" ref="D13" si="1">880000*0.12</f>
         <v>105600</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="28">
         <f>60000*0.2</f>
         <v>12000</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="28">
         <f>36000*0.2</f>
         <v>7200</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="28">
         <f>D13*G3+E13*G4+F13*G5</f>
-        <v>1152000</v>
+        <v>331200</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="12">
         <v>200000</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="12">
         <v>100000</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="12">
         <v>200000</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -1411,40 +1421,40 @@
       <c r="G17" s="17"/>
       <c r="H17" s="15">
         <f>SUM(H6:H15)</f>
-        <v>6112000</v>
+        <v>2008000</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="39"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="38"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="20">
         <v>50000</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="23">
         <v>1</v>
       </c>
@@ -1454,16 +1464,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="40"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="20">
         <v>100000</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="23">
         <v>1</v>
       </c>
@@ -1473,198 +1483,176 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="40" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="50"/>
+      <c r="D21" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="24">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="18">
         <f>H19+H20+H21</f>
         <v>150200</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="21">
         <f>H17+H22</f>
-        <v>6262200</v>
+        <v>2158200</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
     </row>
   </sheetData>
   <sheetProtection password="E80B" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="35">
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A23:G23"/>
     <mergeCell ref="A24:H35"/>
     <mergeCell ref="A18:A22"/>
@@ -1677,7 +1665,29 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="B22:G22"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1698,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1809,17 +1819,31 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="27">
         <v>1</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="27">
         <v>14</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="27">
         <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27">
+        <v>8</v>
+      </c>
+      <c r="D9" s="27">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
